--- a/docs/StructureDefinition-organization.xlsx
+++ b/docs/StructureDefinition-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/organization</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreOrganization</t>
+    <t>SehatukCoreOrganization</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Organization </t>
+    <t xml:space="preserve">SehatukCore  Organization </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Organization Profile</t>
+    <t>SehatukCore Organization Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -263,47 +259,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Organization.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -354,10 +354,6 @@
   </si>
   <si>
     <t>Organization.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -860,7 +856,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/organization-type</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/organization-type</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1898,15 +1894,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1917,26 +1913,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.8984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="103.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.85546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2152,13 +2148,13 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>25</v>
@@ -2169,7 +2165,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2177,31 +2173,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2251,13 +2247,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -2280,7 +2276,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2288,28 +2284,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2360,19 +2356,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -2389,7 +2385,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2400,7 +2396,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -2412,7 +2408,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>94</v>
@@ -2475,7 +2471,7 @@
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -2620,28 +2616,28 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2691,19 +2687,19 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -2720,7 +2716,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2731,28 +2727,28 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2802,19 +2798,19 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -2831,7 +2827,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2842,28 +2838,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2913,19 +2909,19 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2942,7 +2938,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2950,31 +2946,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3024,7 +3020,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -3036,7 +3032,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -3053,7 +3049,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3073,19 +3069,19 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3111,31 +3107,31 @@
         <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -3147,7 +3143,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -3164,7 +3160,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3184,19 +3180,19 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3222,31 +3218,31 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -3258,7 +3254,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -3275,7 +3271,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3286,28 +3282,28 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3357,19 +3353,19 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -3386,7 +3382,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3397,7 +3393,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -3409,16 +3405,16 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3444,43 +3440,43 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -3497,18 +3493,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -3520,16 +3516,16 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3579,25 +3575,25 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>71</v>
@@ -3608,11 +3604,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3631,16 +3627,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3690,7 +3686,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3708,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>71</v>
@@ -3719,7 +3715,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3748,7 +3744,7 @@
         <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>103</v>
@@ -3801,7 +3797,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3819,7 +3815,7 @@
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>71</v>
@@ -3830,7 +3826,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3847,7 +3843,7 @@
         <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3856,16 +3852,16 @@
         <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3914,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3932,7 +3928,7 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>71</v>
@@ -3943,7 +3939,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3957,26 +3953,26 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -4025,7 +4021,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -4034,27 +4030,27 @@
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AI19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4065,7 +4061,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -4077,7 +4073,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>94</v>
@@ -4140,7 +4136,7 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -4163,7 +4159,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4274,7 +4270,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4285,31 +4281,31 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -4334,47 +4330,47 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>71</v>
@@ -4385,7 +4381,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4396,31 +4392,31 @@
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -4445,47 +4441,47 @@
         <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>71</v>
@@ -4496,7 +4492,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4504,34 +4500,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -4544,64 +4540,64 @@
         <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>71</v>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4617,31 +4613,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4655,64 +4651,64 @@
         <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>71</v>
@@ -4720,7 +4716,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4731,25 +4727,25 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4800,28 +4796,28 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>71</v>
@@ -4829,7 +4825,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4840,28 +4836,28 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4911,28 +4907,28 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>71</v>
@@ -4940,7 +4936,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4951,111 +4947,111 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P28" t="s" s="2">
+      <c r="Q28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Q28" t="s" s="2">
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5069,28 +5065,28 @@
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -5115,11 +5111,11 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -5137,7 +5133,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -5149,24 +5145,24 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5177,7 +5173,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -5189,7 +5185,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>94</v>
@@ -5252,7 +5248,7 @@
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -5275,7 +5271,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5386,7 +5382,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5406,22 +5402,22 @@
         <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -5470,7 +5466,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5482,13 +5478,13 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>71</v>
@@ -5499,7 +5495,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5510,7 +5506,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -5522,7 +5518,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>94</v>
@@ -5585,7 +5581,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5719,7 +5715,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5727,34 +5723,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -5803,25 +5799,25 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>71</v>
@@ -5832,7 +5828,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5843,28 +5839,28 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5914,25 +5910,25 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>71</v>
@@ -5943,7 +5939,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5951,32 +5947,32 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>71</v>
@@ -6025,25 +6021,25 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>71</v>
@@ -6054,7 +6050,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6065,29 +6061,29 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -6136,25 +6132,25 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>71</v>
@@ -6165,7 +6161,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6176,31 +6172,31 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -6249,25 +6245,25 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>71</v>
@@ -6278,7 +6274,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6289,31 +6285,31 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -6362,25 +6358,25 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>71</v>
@@ -6391,7 +6387,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6402,31 +6398,31 @@
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -6475,28 +6471,28 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>71</v>
@@ -6504,7 +6500,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6527,19 +6523,19 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -6588,7 +6584,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6600,13 +6596,13 @@
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>71</v>
@@ -6617,7 +6613,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6640,19 +6636,19 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>71</v>
@@ -6701,7 +6697,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6710,19 +6706,19 @@
         <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AI43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AI43" t="s" s="2">
+      <c r="AJ43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>71</v>
@@ -6730,7 +6726,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6741,11 +6737,11 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>71</v>
       </c>
@@ -6753,19 +6749,19 @@
         <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6814,7 +6810,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6823,19 +6819,19 @@
         <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>71</v>
@@ -6843,7 +6839,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6854,7 +6850,7 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -6866,7 +6862,7 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>94</v>
@@ -6929,7 +6925,7 @@
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
@@ -6952,7 +6948,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7063,7 +7059,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7074,31 +7070,31 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>71</v>
@@ -7111,64 +7107,64 @@
         <v>71</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="T47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X47" t="s" s="2">
+      <c r="Y47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>71</v>
@@ -7176,7 +7172,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7187,28 +7183,28 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7222,61 +7218,61 @@
         <v>71</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X48" t="s" s="2">
+      <c r="Y48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>71</v>
@@ -7287,7 +7283,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7295,34 +7291,34 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>71</v>
@@ -7335,61 +7331,61 @@
         <v>71</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="T49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE49" t="s" s="2">
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>71</v>
@@ -7400,7 +7396,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7420,16 +7416,16 @@
         <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7444,43 +7440,43 @@
         <v>71</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -7492,16 +7488,16 @@
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>71</v>
@@ -7509,36 +7505,36 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7553,64 +7549,64 @@
         <v>71</v>
       </c>
       <c r="S51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="T51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>71</v>
@@ -7618,39 +7614,39 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7664,61 +7660,61 @@
         <v>71</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>71</v>
@@ -7729,36 +7725,36 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7809,28 +7805,28 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>71</v>
@@ -7838,36 +7834,36 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7882,64 +7878,64 @@
         <v>71</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>71</v>
@@ -7947,7 +7943,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7958,28 +7954,28 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8029,28 +8025,28 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>71</v>
@@ -8058,7 +8054,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8069,29 +8065,29 @@
         <v>72</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>71</v>
@@ -8104,64 +8100,64 @@
         <v>71</v>
       </c>
       <c r="S56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="T56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AL56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>71</v>
@@ -8169,7 +8165,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8180,29 +8176,29 @@
         <v>72</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>71</v>
@@ -8251,25 +8247,25 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>97</v>
@@ -8280,7 +8276,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8303,19 +8299,19 @@
         <v>71</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>71</v>
@@ -8364,7 +8360,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -8376,13 +8372,13 @@
         <v>71</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>71</v>
@@ -8393,7 +8389,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8404,7 +8400,7 @@
         <v>72</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>71</v>
@@ -8416,7 +8412,7 @@
         <v>71</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>94</v>
@@ -8479,7 +8475,7 @@
         <v>72</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>71</v>
@@ -8502,7 +8498,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8613,11 +8609,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8630,25 +8626,25 @@
         <v>71</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>71</v>
@@ -8697,7 +8693,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -8715,7 +8711,7 @@
         <v>71</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>71</v>
@@ -8726,7 +8722,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8737,7 +8733,7 @@
         <v>72</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>71</v>
@@ -8749,17 +8745,17 @@
         <v>71</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>71</v>
@@ -8784,49 +8780,49 @@
         <v>71</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>71</v>
@@ -8837,7 +8833,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8848,7 +8844,7 @@
         <v>72</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>71</v>
@@ -8860,17 +8856,17 @@
         <v>71</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>71</v>
@@ -8919,25 +8915,25 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>71</v>
@@ -8948,7 +8944,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8971,17 +8967,17 @@
         <v>71</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>71</v>
@@ -9030,7 +9026,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -9042,13 +9038,13 @@
         <v>71</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>71</v>
@@ -9059,7 +9055,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9070,7 +9066,7 @@
         <v>72</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>71</v>
@@ -9082,17 +9078,17 @@
         <v>71</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>71</v>
@@ -9141,25 +9137,25 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>71</v>
@@ -9170,7 +9166,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9193,17 +9189,17 @@
         <v>71</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>71</v>
@@ -9252,7 +9248,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -9264,7 +9260,7 @@
         <v>71</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>71</v>

--- a/docs/StructureDefinition-organization.xlsx
+++ b/docs/StructureDefinition-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
